--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15735,7 +15735,7 @@
         <v>1067</v>
       </c>
       <c r="N192" t="n">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="O192" t="n">
         <v>134</v>
@@ -15775,7 +15775,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42844</v>
+        <v>42846</v>
       </c>
     </row>
     <row r="193">
@@ -15821,7 +15821,7 @@
         <v>1077</v>
       </c>
       <c r="N193" t="n">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -15857,7 +15857,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43112</v>
+        <v>43122</v>
       </c>
     </row>
     <row r="194">
@@ -15896,7 +15896,9 @@
       <c r="M194" t="n">
         <v>1083</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>901</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>107</v>
@@ -15929,7 +15931,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43304</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="195">
@@ -15948,7 +15950,9 @@
       <c r="G195" t="n">
         <v>1237</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1820</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -15956,7 +15960,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>903</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -15977,7 +15983,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43442</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="196">
@@ -15998,7 +16004,9 @@
       <c r="G196" t="n">
         <v>1241</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1874</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -16031,7 +16039,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43527</v>
+        <v>43618</v>
       </c>
     </row>
     <row r="197">
@@ -16045,8 +16053,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1247</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1898</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -16056,14 +16068,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>168</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>508</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>137</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -16071,7 +16087,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43541</v>
+        <v>43663</v>
       </c>
     </row>
   </sheetData>
@@ -30891,7 +30907,9 @@
         <v>7</v>
       </c>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>84</v>
+      </c>
       <c r="O189" t="n">
         <v>3</v>
       </c>
@@ -30967,7 +30985,9 @@
       <c r="M190" t="n">
         <v>21</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>84</v>
+      </c>
       <c r="O190" t="n">
         <v>3</v>
       </c>
@@ -31051,7 +31071,9 @@
       <c r="M191" t="n">
         <v>21</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>84</v>
+      </c>
       <c r="O191" t="n">
         <v>3</v>
       </c>
@@ -31135,7 +31157,9 @@
       <c r="M192" t="n">
         <v>21</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>84</v>
+      </c>
       <c r="O192" t="n">
         <v>3</v>
       </c>
@@ -31219,7 +31243,9 @@
       <c r="M193" t="n">
         <v>21</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>84</v>
+      </c>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
         <v>0</v>
@@ -31293,7 +31319,9 @@
       <c r="M194" t="n">
         <v>21</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>84</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -31345,7 +31373,9 @@
       <c r="G195" t="n">
         <v>54</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>85</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -31395,7 +31425,9 @@
       <c r="G196" t="n">
         <v>54</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>87</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -31428,7 +31460,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="197">
@@ -31442,8 +31474,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>54</v>
+      </c>
+      <c r="H197" t="n">
+        <v>87</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -31453,14 +31489,18 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>9</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="n">
         <v>25</v>
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>7</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -31468,7 +31508,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -45598,7 +45638,9 @@
       <c r="M194" t="n">
         <v>8</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="n">
         <v>0</v>
@@ -45629,7 +45671,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="195">
@@ -45644,7 +45686,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>5</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -45652,7 +45696,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -45686,7 +45732,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>5</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -45694,7 +45742,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -45732,7 +45782,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>5</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -45742,12 +45794,16 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -58431,7 +58487,9 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -58467,7 +58525,9 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
@@ -58475,7 +58535,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -58505,7 +58567,9 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
@@ -58513,7 +58577,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -58545,7 +58611,9 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -58555,7 +58623,9 @@
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
@@ -68438,7 +68508,9 @@
       </c>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
       <c r="Q194" t="inlineStr"/>
@@ -68480,7 +68552,9 @@
       </c>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="inlineStr"/>
@@ -68520,7 +68594,9 @@
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -79099,7 +79175,9 @@
       <c r="G195" t="n">
         <v>1137</v>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>164</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -79124,7 +79202,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6870</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="196">
@@ -79141,7 +79219,9 @@
       <c r="G196" t="n">
         <v>1148</v>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>164</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -79168,7 +79248,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6881</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="197">
@@ -79182,8 +79262,12 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>1151</v>
+      </c>
+      <c r="H197" t="n">
+        <v>164</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -79200,7 +79284,9 @@
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
+      <c r="W197" t="n">
+        <v>127</v>
+      </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="n">
@@ -79208,7 +79294,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6886</v>
+        <v>6890</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15971,7 +15971,9 @@
       <c r="T195" t="n">
         <v>500</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>592</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -15983,7 +15985,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43479</v>
+        <v>43484</v>
       </c>
     </row>
     <row r="196">
@@ -16025,7 +16027,9 @@
       <c r="T196" t="n">
         <v>500</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>592</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>137</v>
@@ -16039,7 +16043,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43618</v>
+        <v>43623</v>
       </c>
     </row>
     <row r="197">
@@ -16063,7 +16067,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1092</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -16071,12 +16077,18 @@
       <c r="R197" t="n">
         <v>168</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>731</v>
+      </c>
       <c r="T197" t="n">
         <v>508</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>592</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3561</v>
+      </c>
       <c r="W197" t="n">
         <v>137</v>
       </c>
@@ -16087,7 +16099,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43663</v>
+        <v>43692</v>
       </c>
     </row>
   </sheetData>
@@ -31392,7 +31404,9 @@
       <c r="T195" t="n">
         <v>25</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>19</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -31446,7 +31460,9 @@
       <c r="T196" t="n">
         <v>25</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>19</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>7</v>
@@ -31484,7 +31500,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>21</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -31492,12 +31510,18 @@
       <c r="R197" t="n">
         <v>9</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>18</v>
+      </c>
       <c r="T197" t="n">
         <v>25</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>19</v>
+      </c>
+      <c r="V197" t="n">
+        <v>350</v>
+      </c>
       <c r="W197" t="n">
         <v>7</v>
       </c>
@@ -45705,7 +45729,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>4</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -45717,7 +45743,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196">
@@ -45753,7 +45779,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>4</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>0</v>
@@ -45767,7 +45795,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197">
@@ -45789,7 +45817,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>8</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -45797,10 +45827,16 @@
       <c r="R197" t="n">
         <v>0</v>
       </c>
-      <c r="S197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>1</v>
+      </c>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>4</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="n">
         <v>0</v>
       </c>
@@ -45811,7 +45847,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -58544,7 +58580,9 @@
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>2</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -58588,7 +58626,9 @@
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>2</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
@@ -58618,7 +58658,9 @@
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>2</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
@@ -58628,15 +58670,19 @@
       </c>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -68644,7 +68690,9 @@
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79192,7 +79240,9 @@
       <c r="T195" t="n">
         <v>456</v>
       </c>
-      <c r="U195" t="inlineStr"/>
+      <c r="U195" t="n">
+        <v>82</v>
+      </c>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
@@ -79202,7 +79252,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6871</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="196">
@@ -79236,7 +79286,9 @@
       <c r="T196" t="n">
         <v>456</v>
       </c>
-      <c r="U196" t="inlineStr"/>
+      <c r="U196" t="n">
+        <v>82</v>
+      </c>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="n">
         <v>127</v>
@@ -79248,7 +79300,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6882</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="197">
@@ -79282,8 +79334,12 @@
       <c r="T197" t="n">
         <v>460</v>
       </c>
-      <c r="U197" t="inlineStr"/>
-      <c r="V197" t="inlineStr"/>
+      <c r="U197" t="n">
+        <v>82</v>
+      </c>
+      <c r="V197" t="n">
+        <v>929</v>
+      </c>
       <c r="W197" t="n">
         <v>127</v>
       </c>
@@ -79294,7 +79350,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6890</v>
+        <v>6892</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -16053,9 +16053,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>25</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2681</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>1247</v>
@@ -16064,7 +16068,9 @@
         <v>1898</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>166</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -16099,7 +16105,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43692</v>
+        <v>43700</v>
       </c>
     </row>
   </sheetData>
@@ -31486,9 +31492,13 @@
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>99</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
         <v>54</v>
@@ -31497,7 +31507,9 @@
         <v>87</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>13</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45807,14 +45819,18 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
         <v>5</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
@@ -45847,7 +45863,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58648,7 +58664,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
@@ -68673,7 +68691,9 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -68699,7 +68719,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15866,7 +15866,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>2200</v>
+      </c>
       <c r="C194" t="n">
         <v>25</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43318</v>
+        <v>43345</v>
       </c>
     </row>
     <row r="195">
@@ -15940,7 +15942,9 @@
           <t>2020-09-05</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>2220</v>
+      </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
@@ -15985,7 +15989,7 @@
         <v>6471</v>
       </c>
       <c r="AB195" t="n">
-        <v>43484</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="196">
@@ -15994,7 +15998,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>2225</v>
+      </c>
       <c r="C196" t="n">
         <v>25</v>
       </c>
@@ -16043,7 +16049,7 @@
         <v>6513</v>
       </c>
       <c r="AB196" t="n">
-        <v>43623</v>
+        <v>43675</v>
       </c>
     </row>
     <row r="197">
@@ -16056,7 +16062,9 @@
       <c r="C197" t="n">
         <v>25</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>139</v>
+      </c>
       <c r="E197" t="n">
         <v>2681</v>
       </c>
@@ -16105,7 +16113,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>43700</v>
+        <v>43756</v>
       </c>
     </row>
   </sheetData>
@@ -31307,7 +31315,9 @@
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>52</v>
+      </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
@@ -31433,7 +31443,9 @@
           <t>2020-09-06</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>52</v>
+      </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
@@ -31495,7 +31507,9 @@
       <c r="C197" t="n">
         <v>0</v>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>3</v>
+      </c>
       <c r="E197" t="n">
         <v>99</v>
       </c>
@@ -45818,7 +45832,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>3</v>
       </c>
@@ -45863,7 +45879,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -58663,7 +58679,9 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
       <c r="E197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15950,7 +15950,9 @@
       <c r="E195" t="n">
         <v>2650</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>1063</v>
+      </c>
       <c r="G195" t="n">
         <v>1237</v>
       </c>
@@ -15986,10 +15988,10 @@
         <v>371</v>
       </c>
       <c r="AA195" t="n">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43531</v>
+        <v>43536</v>
       </c>
     </row>
     <row r="196">
@@ -16008,7 +16010,9 @@
       <c r="E196" t="n">
         <v>2673</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>1067</v>
+      </c>
       <c r="G196" t="n">
         <v>1241</v>
       </c>
@@ -16046,10 +16050,10 @@
         <v>371</v>
       </c>
       <c r="AA196" t="n">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43675</v>
+        <v>43684</v>
       </c>
     </row>
     <row r="197">
@@ -16068,7 +16072,9 @@
       <c r="E197" t="n">
         <v>2681</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>1067</v>
+      </c>
       <c r="G197" t="n">
         <v>1247</v>
       </c>
@@ -16086,7 +16092,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>107</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>168</v>
@@ -16111,9 +16119,11 @@
       <c r="Z197" t="n">
         <v>377</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>6558</v>
+      </c>
       <c r="AB197" t="n">
-        <v>43756</v>
+        <v>43809</v>
       </c>
     </row>
   </sheetData>
@@ -30708,9 +30718,7 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
-      <c r="Q186" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
         <v>8</v>
       </c>
@@ -30742,7 +30750,7 @@
         <v>141</v>
       </c>
       <c r="AB186" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="187">
@@ -30828,7 +30836,7 @@
         <v>141</v>
       </c>
       <c r="AB187" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="188">
@@ -30896,7 +30904,7 @@
         <v>141</v>
       </c>
       <c r="AB188" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="189">
@@ -30940,9 +30948,7 @@
         <v>3</v>
       </c>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="n">
@@ -30966,7 +30972,7 @@
         <v>142</v>
       </c>
       <c r="AB189" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="190">
@@ -31020,9 +31026,7 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
-      <c r="Q190" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
         <v>8</v>
       </c>
@@ -31054,7 +31058,7 @@
         <v>142</v>
       </c>
       <c r="AB190" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="191">
@@ -31106,9 +31110,7 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
-      <c r="Q191" t="n">
-        <v>42</v>
-      </c>
+      <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
         <v>8</v>
       </c>
@@ -31140,7 +31142,7 @@
         <v>142</v>
       </c>
       <c r="AB191" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="192">
@@ -31192,9 +31194,7 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
-      <c r="Q192" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
         <v>8</v>
       </c>
@@ -31224,7 +31224,7 @@
         <v>142</v>
       </c>
       <c r="AB192" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="193">
@@ -31276,9 +31276,7 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
-      <c r="Q193" t="n">
-        <v>43</v>
-      </c>
+      <c r="Q193" t="inlineStr"/>
       <c r="R193" t="n">
         <v>8</v>
       </c>
@@ -31306,7 +31304,7 @@
         <v>142</v>
       </c>
       <c r="AB193" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="194">
@@ -31382,7 +31380,7 @@
         <v>142</v>
       </c>
       <c r="AB194" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="195">
@@ -31397,7 +31395,9 @@
       <c r="E195" t="n">
         <v>99</v>
       </c>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>35</v>
+      </c>
       <c r="G195" t="n">
         <v>54</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>142</v>
       </c>
       <c r="AB195" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="196">
@@ -31453,7 +31453,9 @@
       <c r="E196" t="n">
         <v>99</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>35</v>
+      </c>
       <c r="G196" t="n">
         <v>54</v>
       </c>
@@ -31513,7 +31515,9 @@
       <c r="E197" t="n">
         <v>99</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>35</v>
+      </c>
       <c r="G197" t="n">
         <v>54</v>
       </c>
@@ -31531,7 +31535,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>9</v>
@@ -31556,7 +31562,9 @@
       <c r="Z197" t="n">
         <v>9</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>142</v>
+      </c>
       <c r="AB197" t="n">
         <v>2014</v>
       </c>
@@ -45734,8 +45742,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6</v>
+      </c>
       <c r="H195" t="n">
         <v>5</v>
       </c>
@@ -45769,7 +45781,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196">
@@ -45782,8 +45794,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>5</v>
+      </c>
       <c r="H196" t="n">
         <v>5</v>
       </c>
@@ -45838,8 +45854,12 @@
       <c r="E197" t="n">
         <v>3</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4</v>
+      </c>
       <c r="H197" t="n">
         <v>5</v>
       </c>
@@ -45854,7 +45874,9 @@
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
         <v>0</v>
@@ -45877,9 +45899,11 @@
       <c r="Z197" t="n">
         <v>1</v>
       </c>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>34</v>
+      </c>
       <c r="AB197" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -58591,8 +58615,12 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2</v>
+      </c>
       <c r="H195" t="n">
         <v>1</v>
       </c>
@@ -58635,8 +58663,12 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2</v>
+      </c>
       <c r="H196" t="n">
         <v>1</v>
       </c>
@@ -58685,8 +58717,12 @@
       <c r="E197" t="n">
         <v>2</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
       <c r="H197" t="n">
         <v>1</v>
       </c>
@@ -58718,7 +58754,7 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -68624,7 +68660,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -68666,7 +68704,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -68712,7 +68752,9 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -68735,7 +68777,9 @@
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
-      <c r="AA197" t="inlineStr"/>
+      <c r="AA197" t="n">
+        <v>8</v>
+      </c>
       <c r="AB197" t="n">
         <v>11</v>
       </c>
@@ -79257,7 +79301,9 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
+      <c r="F195" t="n">
+        <v>977</v>
+      </c>
       <c r="G195" t="n">
         <v>1137</v>
       </c>
@@ -79290,7 +79336,7 @@
       </c>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
-        <v>6872</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="196">
@@ -79303,7 +79349,9 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>981</v>
+      </c>
       <c r="G196" t="n">
         <v>1148</v>
       </c>
@@ -79338,7 +79386,7 @@
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
-        <v>6883</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="197">
@@ -79351,7 +79399,9 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>987</v>
+      </c>
       <c r="G197" t="n">
         <v>1151</v>
       </c>
@@ -79388,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6892</v>
+        <v>6908</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -16112,7 +16112,7 @@
         <v>3561</v>
       </c>
       <c r="W197" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -16123,7 +16123,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43809</v>
+        <v>43810</v>
       </c>
     </row>
   </sheetData>
@@ -79429,7 +79429,7 @@
         <v>929</v>
       </c>
       <c r="W197" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
       <c r="Y197" t="inlineStr"/>
@@ -79438,7 +79438,7 @@
       </c>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
-        <v>6908</v>
+        <v>6909</v>
       </c>
     </row>
   </sheetData>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15596,7 +15596,7 @@
         <v>7242</v>
       </c>
       <c r="Y190" t="n">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="Z190" t="n">
         <v>349</v>
@@ -15605,7 +15605,7 @@
         <v>6067</v>
       </c>
       <c r="AB190" t="n">
-        <v>42242</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="191">
@@ -15682,7 +15682,7 @@
         <v>7330</v>
       </c>
       <c r="Y191" t="n">
-        <v>2371</v>
+        <v>2387</v>
       </c>
       <c r="Z191" t="n">
         <v>353</v>
@@ -15691,7 +15691,7 @@
         <v>6135</v>
       </c>
       <c r="AB191" t="n">
-        <v>42545</v>
+        <v>42561</v>
       </c>
     </row>
     <row r="192">
@@ -15767,7 +15767,9 @@
       <c r="X192" t="n">
         <v>7380</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>2400</v>
+      </c>
       <c r="Z192" t="n">
         <v>354</v>
       </c>
@@ -15775,7 +15777,7 @@
         <v>6226</v>
       </c>
       <c r="AB192" t="n">
-        <v>42846</v>
+        <v>42875</v>
       </c>
     </row>
     <row r="193">
@@ -15849,7 +15851,9 @@
         <v>137</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>2416</v>
+      </c>
       <c r="Z193" t="n">
         <v>361</v>
       </c>
@@ -15857,7 +15861,7 @@
         <v>6298</v>
       </c>
       <c r="AB193" t="n">
-        <v>43122</v>
+        <v>43167</v>
       </c>
     </row>
     <row r="194">
@@ -15925,7 +15929,9 @@
         <v>137</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>2428</v>
+      </c>
       <c r="Z194" t="n">
         <v>371</v>
       </c>
@@ -15933,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43345</v>
+        <v>43402</v>
       </c>
     </row>
     <row r="195">
@@ -15983,7 +15989,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>2437</v>
+      </c>
       <c r="Z195" t="n">
         <v>371</v>
       </c>
@@ -15991,7 +15999,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43536</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="196">
@@ -16045,7 +16053,9 @@
         <v>137</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z196" t="n">
         <v>371</v>
       </c>
@@ -16053,7 +16063,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43684</v>
+        <v>43752</v>
       </c>
     </row>
     <row r="197">
@@ -16115,7 +16125,9 @@
         <v>138</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>2439</v>
+      </c>
       <c r="Z197" t="n">
         <v>377</v>
       </c>
@@ -16123,7 +16135,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43810</v>
+        <v>43878</v>
       </c>
     </row>
   </sheetData>
@@ -31216,7 +31228,9 @@
       <c r="X192" t="n">
         <v>432</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>155</v>
+      </c>
       <c r="Z192" t="n">
         <v>9</v>
       </c>
@@ -31296,7 +31310,9 @@
         <v>7</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>155</v>
+      </c>
       <c r="Z193" t="n">
         <v>9</v>
       </c>
@@ -31372,7 +31388,9 @@
         <v>7</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>155</v>
+      </c>
       <c r="Z194" t="n">
         <v>9</v>
       </c>
@@ -31426,7 +31444,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>155</v>
+      </c>
       <c r="Z195" t="n">
         <v>9</v>
       </c>
@@ -31488,7 +31508,9 @@
         <v>7</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>155</v>
+      </c>
       <c r="Z196" t="n">
         <v>9</v>
       </c>
@@ -31558,7 +31580,9 @@
         <v>7</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>155</v>
+      </c>
       <c r="Z197" t="n">
         <v>9</v>
       </c>
@@ -45575,7 +45599,9 @@
       <c r="X192" t="n">
         <v>13</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>3</v>
+      </c>
       <c r="Z192" t="n">
         <v>3</v>
       </c>
@@ -45649,7 +45675,9 @@
         <v>0</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>3</v>
+      </c>
       <c r="Z193" t="n">
         <v>2</v>
       </c>
@@ -45721,7 +45749,9 @@
         <v>0</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>3</v>
+      </c>
       <c r="Z194" t="n">
         <v>2</v>
       </c>
@@ -45773,7 +45803,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>3</v>
+      </c>
       <c r="Z195" t="n">
         <v>2</v>
       </c>
@@ -45829,7 +45861,9 @@
         <v>0</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>3</v>
+      </c>
       <c r="Z196" t="n">
         <v>2</v>
       </c>
@@ -45895,7 +45929,9 @@
         <v>0</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>3</v>
+      </c>
       <c r="Z197" t="n">
         <v>1</v>
       </c>
@@ -58476,7 +58512,9 @@
       <c r="X192" t="n">
         <v>4</v>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="n">
@@ -58538,7 +58576,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="n">
@@ -58598,7 +58638,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="n">
@@ -58646,7 +58688,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="n">
@@ -58696,7 +58740,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="n">
@@ -58750,7 +58796,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
@@ -68545,7 +68593,9 @@
       </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>0</v>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="n">
         <v>7</v>
@@ -68593,7 +68643,9 @@
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>0</v>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="n">
         <v>7</v>
@@ -68641,7 +68693,9 @@
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="n">
         <v>7</v>
@@ -68685,7 +68739,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>0</v>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="n">
         <v>8</v>
@@ -68731,7 +68787,9 @@
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>0</v>
+      </c>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="n">
         <v>8</v>
@@ -68775,7 +68833,9 @@
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="n">
         <v>8</v>
@@ -79178,7 +79238,9 @@
         <v>127</v>
       </c>
       <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="n">
+        <v>320</v>
+      </c>
       <c r="Z192" t="n">
         <v>314</v>
       </c>
@@ -79230,7 +79292,9 @@
         <v>127</v>
       </c>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="n">
+        <v>320</v>
+      </c>
       <c r="Z193" t="n">
         <v>316</v>
       </c>
@@ -79282,7 +79346,9 @@
         <v>127</v>
       </c>
       <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="n">
+        <v>320</v>
+      </c>
       <c r="Z194" t="n">
         <v>317</v>
       </c>
@@ -79330,7 +79396,9 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="n">
+        <v>320</v>
+      </c>
       <c r="Z195" t="n">
         <v>317</v>
       </c>
@@ -79380,7 +79448,9 @@
         <v>127</v>
       </c>
       <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
+      <c r="Y196" t="n">
+        <v>320</v>
+      </c>
       <c r="Z196" t="n">
         <v>317</v>
       </c>
@@ -79432,7 +79502,9 @@
         <v>128</v>
       </c>
       <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
+      <c r="Y197" t="n">
+        <v>320</v>
+      </c>
       <c r="Z197" t="n">
         <v>318</v>
       </c>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15897,7 +15897,7 @@
         <v>1009</v>
       </c>
       <c r="L194" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M194" t="n">
         <v>1083</v>
@@ -15939,7 +15939,7 @@
         <v>6394</v>
       </c>
       <c r="AB194" t="n">
-        <v>43402</v>
+        <v>43403</v>
       </c>
     </row>
     <row r="195">
@@ -15970,7 +15970,9 @@
       <c r="K195" t="n">
         <v>1022</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>277</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>903</v>
@@ -15999,7 +16001,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43602</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="196">
@@ -16032,7 +16034,9 @@
       <c r="K196" t="n">
         <v>1022</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>277</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -16063,7 +16067,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43752</v>
+        <v>43755</v>
       </c>
     </row>
     <row r="197">
@@ -16096,7 +16100,9 @@
         <v>166</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>279</v>
+      </c>
       <c r="M197" t="n">
         <v>1092</v>
       </c>
@@ -16135,7 +16141,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43878</v>
+        <v>43883</v>
       </c>
     </row>
   </sheetData>
@@ -31427,7 +31433,9 @@
       <c r="K195" t="n">
         <v>50</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>7</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -31487,7 +31495,9 @@
       <c r="K196" t="n">
         <v>50</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>7</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -31551,7 +31561,9 @@
         <v>13</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>7</v>
+      </c>
       <c r="M197" t="n">
         <v>21</v>
       </c>
@@ -45643,7 +45655,7 @@
         <v>1</v>
       </c>
       <c r="L193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M193" t="n">
         <v>7</v>
@@ -45685,7 +45697,7 @@
         <v>28</v>
       </c>
       <c r="AB193" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194">
@@ -45719,7 +45731,7 @@
         <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M194" t="n">
         <v>8</v>
@@ -45759,7 +45771,7 @@
         <v>28</v>
       </c>
       <c r="AB194" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="195">
@@ -45786,7 +45798,9 @@
       <c r="K195" t="n">
         <v>1</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>4</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>1</v>
@@ -45813,7 +45827,7 @@
         <v>30</v>
       </c>
       <c r="AB195" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="196">
@@ -45840,7 +45854,9 @@
       <c r="K196" t="n">
         <v>1</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>1</v>
@@ -45871,7 +45887,7 @@
         <v>31</v>
       </c>
       <c r="AB196" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197">
@@ -45902,7 +45918,9 @@
         <v>0</v>
       </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>4</v>
+      </c>
       <c r="M197" t="n">
         <v>8</v>
       </c>
@@ -45939,7 +45957,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -58671,7 +58689,9 @@
       <c r="K195" t="n">
         <v>0</v>
       </c>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
         <v>0</v>
@@ -58721,7 +58741,9 @@
       <c r="K196" t="n">
         <v>0</v>
       </c>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
       <c r="M196" t="inlineStr"/>
       <c r="N196" t="n">
         <v>0</v>
@@ -58775,7 +58797,9 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
       <c r="M197" t="n">
         <v>2</v>
       </c>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15979,7 +15979,9 @@
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>1306</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -16001,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43605</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="196">
@@ -16099,7 +16101,9 @@
       <c r="J197" t="n">
         <v>166</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1023</v>
+      </c>
       <c r="L197" t="n">
         <v>279</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43883</v>
+        <v>43884</v>
       </c>
     </row>
   </sheetData>
@@ -31440,7 +31444,9 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>41</v>
+      </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="inlineStr"/>
       <c r="T195" t="n">
@@ -31560,7 +31566,9 @@
       <c r="J197" t="n">
         <v>13</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>50</v>
+      </c>
       <c r="L197" t="n">
         <v>7</v>
       </c>
@@ -45917,7 +45925,9 @@
       <c r="J197" t="n">
         <v>0</v>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
       <c r="L197" t="n">
         <v>4</v>
       </c>
@@ -58796,7 +58806,9 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="n">
         <v>0</v>
       </c>
@@ -68841,7 +68853,9 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
       <c r="N197" t="inlineStr"/>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16115,7 +16115,9 @@
       <c r="P197" t="n">
         <v>107</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1321</v>
+      </c>
       <c r="R197" t="n">
         <v>168</v>
       </c>
@@ -16145,7 +16147,43 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43884</v>
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>43895</v>
       </c>
     </row>
   </sheetData>
@@ -16159,7 +16197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31580,7 +31618,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>41</v>
+      </c>
       <c r="R197" t="n">
         <v>9</v>
       </c>
@@ -31610,6 +31650,42 @@
         <v>142</v>
       </c>
       <c r="AB197" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -31624,7 +31700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45939,7 +46015,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -45967,6 +46045,42 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>110</v>
       </c>
     </row>
@@ -45981,7 +46095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58818,7 +58932,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
       <c r="R197" t="n">
         <v>0</v>
       </c>
@@ -58838,6 +58954,42 @@
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58852,7 +59004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68861,7 +69013,9 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr"/>
@@ -68879,6 +69033,42 @@
         <v>8</v>
       </c>
       <c r="AB197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
         <v>11</v>
       </c>
     </row>
@@ -68893,7 +69083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79551,6 +79741,42 @@
         <v>6909</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>6909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -79562,7 +79788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB197"/>
+  <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87004,6 +87230,42 @@
         <v>72603</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="n">
+        <v>72603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/cache/daily/ch/202009070000..xlsx
+++ b/cache/daily/ch/202009070000..xlsx
@@ -15975,7 +15975,7 @@
       </c>
       <c r="M195" t="inlineStr"/>
       <c r="N195" t="n">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
@@ -16003,7 +16003,7 @@
         <v>6472</v>
       </c>
       <c r="AB195" t="n">
-        <v>43617</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="196">
@@ -16040,7 +16040,9 @@
         <v>277</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>914</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -16069,7 +16071,7 @@
         <v>6514</v>
       </c>
       <c r="AB196" t="n">
-        <v>43755</v>
+        <v>43766</v>
       </c>
     </row>
     <row r="197">
@@ -16110,7 +16112,9 @@
       <c r="M197" t="n">
         <v>1092</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>916</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>107</v>
@@ -16147,7 +16151,7 @@
         <v>6558</v>
       </c>
       <c r="AB197" t="n">
-        <v>43895</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="198">
@@ -16161,7 +16165,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1254</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -16172,18 +16178,26 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>171</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>511</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>3565</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>384</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>43895</v>
+        <v>43932</v>
       </c>
     </row>
   </sheetData>
@@ -31479,7 +31493,9 @@
         <v>7</v>
       </c>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>84</v>
+      </c>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
       <c r="Q195" t="n">
@@ -31543,7 +31559,9 @@
         <v>7</v>
       </c>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>85</v>
+      </c>
       <c r="O196" t="inlineStr"/>
       <c r="P196" t="inlineStr"/>
       <c r="Q196" t="n">
@@ -31572,7 +31590,7 @@
         <v>142</v>
       </c>
       <c r="AB196" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="197">
@@ -31622,7 +31640,7 @@
         <v>41</v>
       </c>
       <c r="R197" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S197" t="n">
         <v>18</v>
@@ -31664,7 +31682,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>54</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -31675,15 +31695,23 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>8</v>
+      </c>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>25</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>350</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>9</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>2014</v>
@@ -46010,7 +46038,9 @@
       <c r="M197" t="n">
         <v>8</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>0</v>
@@ -46045,7 +46075,7 @@
         <v>34</v>
       </c>
       <c r="AB197" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198">
@@ -46059,7 +46089,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>4</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -46070,15 +46102,21 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
         <v>110</v>
@@ -58929,7 +58967,9 @@
       <c r="M197" t="n">
         <v>2</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -58968,7 +59008,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -58979,11 +59021,15 @@
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -69010,7 +69056,9 @@
       </c>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="inlineStr"/>
       <c r="Q197" t="n">
@@ -69062,7 +69110,9 @@
       <c r="S198" t="inlineStr"/>
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>0</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
@@ -79752,7 +79802,9 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>1154</v>
+      </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -79765,16 +79817,22 @@
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+      <c r="T198" t="n">
+        <v>464</v>
+      </c>
       <c r="U198" t="inlineStr"/>
-      <c r="V198" t="inlineStr"/>
+      <c r="V198" t="n">
+        <v>929</v>
+      </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr"/>
       <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
+      <c r="Z198" t="n">
+        <v>327</v>
+      </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="n">
-        <v>6909</v>
+        <v>6925</v>
       </c>
     </row>
   </sheetData>
